--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4D4227B-00B9-4AEA-87FC-6903425C9D91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3590BA-6903-4CEF-B3B5-C2191E6AB83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>EXERCÍCIO</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Faça um programa que leia a largura e a altura de uma parede em metros, calcule a sua área e a quantidade de tinta necessária para pintá-la, sabendo que cada litro de tinta pinta uma área de 2 metros quadrados.</t>
+  </si>
+  <si>
+    <t>Faça um algoritmo que leia o preço de um produto e mostre seu novo preço, com 5% de desconto.</t>
+  </si>
+  <si>
+    <t>Faça um algoritmo que leia o salário de um funcionário e mostre seu novo salário, com 15% de aumento.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que converta uma temperatura digitando em graus Celsius e converta para graus Fahrenheit.</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,15 +539,24 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3590BA-6903-4CEF-B3B5-C2191E6AB83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850577A-5E18-4A04-86E5-7D698320576A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>EXERCÍCIO</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Escreva um programa que converta uma temperatura digitando em graus Celsius e converta para graus Fahrenheit.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que pergunte a quantidade de Km percorridos por um carro alugado e a quantidade de dias pelos quais ele foi alugado. Calcule o preço a pagar, sabendo que o carro custa R$ 60 por dia e R$ 0,15 por Km rodado.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +562,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5850577A-5E18-4A04-86E5-7D698320576A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506544AC-D2BE-43BC-AAFF-EF3DAA31C288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>EXERCÍCIO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -76,6 +73,84 @@
   </si>
   <si>
     <t>Escreva um programa que pergunte a quantidade de Km percorridos por um carro alugado e a quantidade de dias pelos quais ele foi alugado. Calcule o preço a pagar, sabendo que o carro custa R$ 60 por dia e R$ 0,15 por Km rodado.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia um número Real qualquer pelo teclado e mostre na tela a sua porção Inteira.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o comprimento do cateto oposto e do cateto adjacente de um triângulo retângulo. Calcule e mostre o comprimento da hipotenusa.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um ângulo qualquer e mostre na tela o valor do seno, cosseno e tangente desse ângulo.</t>
+  </si>
+  <si>
+    <t>Um professor quer sortear um dos seus quatro alunos para apagar o quadro. Faça um programa que ajude ele, lendo o nome dos alunos e escrevendo na tela o nome do escolhido.</t>
+  </si>
+  <si>
+    <t>O mesmo professor do desafio 19 quer sortear a ordem de apresentação de trabalhos dos alunos. Faça um programa que leia o nome dos quatro alunos e mostre a ordem sorteada.</t>
+  </si>
+  <si>
+    <t>Faça um programa em Python que abra e reproduza o áudio de um arquivo MP3.(NÃO ESTA FUNCIONANDO) visual code</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia o nome completo de uma pessoa e mostre: O nome com todas as letras maiúsculas e minúsculas. Quantas letras ao todo (sem considerar espaços). Quantas letras tem o primeiro nome.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número de 0 a 9999 e mostre na tela cada um dos dígitos separados.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia o nome de uma cidade diga se ela começa ou não com o nome “SANTO”</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia o nome de uma pessoa e diga se ela tem “SILVA” no nome.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia uma frase pelo teclado e mostre quantas vezes aparece a letra “A”, em que posição ela aparece a primeira vez e em que posição ela aparece a última vez.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o nome completo de uma pessoa, mostrando em seguida o primeiro e o último nome separadamente.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que faça o computador “pensar” em um número inteiro entre 0 e 5 e peça para o usuário tentar descobrir qual foi o número escolhido pelo computador. O programa deverá escrever na tela se o usuário venceu ou perdeu.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que leia a velocidade de um carro. Se ele ultrapassar 80Km/h, mostre uma mensagem dizendo que ele foi multado. A multa vai custar R$7,00 por cada Km acima do limite.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia um número inteiro e mostre na tela se ele é PAR ou ÍMPAR.</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que pergunte a distância de uma viagem em Km. Calcule o preço da passagem, cobrando R$0,50 por Km para viagens de até 200Km e R$0,45 parta viagens mais longas.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um ano qualquer e mostre se ele é bissexto.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia três números e mostre qual é o maior e qual é o menor.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que pergunte o salário de um funcionário e calcule o valor do seu aumento. Para salários superiores a R$1250,00, calcule um aumento de 10%. Para os inferiores ou iguais, o aumento é de 15%.</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o comprimento de três retas e diga ao usuário se elas podem ou não formar um triângulo.</t>
+  </si>
+  <si>
+    <t>Escreva um programa para aprovar o empréstimo bancário para a compra de uma casa. Pergunte o valor da casa, o salário do comprador e em quantos anos ele vai pagar. A prestação mensal não pode exceder 30% do salário ou então o empréstimo será negado.</t>
+  </si>
+  <si>
+    <t>Escreva um programa em Python que leia um número inteiro qualquer e peça para o usuário escolher qual será a base de conversão: 1 para binário, 2 para octal e 3 para hexadecimal.</t>
+  </si>
+  <si>
+    <t>Escreva um programa que leia dois números inteiros e compare-os. mostrando na tela uma mensagem: O primeiro valor é maior. O segundo valor é maior. Não existe valor maior, os dois são iguais</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o ano de nascimento de um jovem e informe, de acordo com a sua idade, se ele ainda vai se alistar ao serviço militar, se é a hora exata de se alistar ou se já passou do tempo do alistamento. Seu programa também deverá mostrar o tempo que falta ou que passou do prazo.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia duas notas de um aluno e calcule sua média, mostrando uma mensagem no final, de acordo com a média atingida: Média 7.0 ou superior: APROVADO. Média entre 5.0 e 6.9: RECUPERAÇÃO. Média abaixo de 5.0: REPROVADO</t>
+  </si>
+  <si>
+    <t>NÚM</t>
   </si>
 </sst>
 </file>
@@ -120,7 +195,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -131,6 +210,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2BBF133-32BD-4B64-BA5B-584D51C072AA}" name="Tabela1" displayName="Tabela1" ref="A1:B1048576" totalsRowShown="0">
+  <autoFilter ref="A1:B1048576" xr:uid="{98438B27-B4A2-4ACA-824D-E1F42EB98D66}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1E2FFB40-75EE-4A3D-AB2C-F2D9E1FFF95F}" name="NÚM"/>
+    <tableColumn id="2" xr3:uid="{B0902929-F26F-4ED3-B204-642D4CC5338A}" name="DESCRIÇÃO" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,21 +523,21 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="126.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="177.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -455,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -487,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -503,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -519,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -527,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -535,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -559,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -567,165 +657,240 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -998,5 +1163,8 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506544AC-D2BE-43BC-AAFF-EF3DAA31C288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA95BF-C1F4-42BA-B35B-0AF7F3DF6A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -151,6 +151,24 @@
   </si>
   <si>
     <t>NÚM</t>
+  </si>
+  <si>
+    <t>A Confederação Nacional de Natação precisa de um programa que leia o ano de nascimento de um atleta e mostre sua categoria, de acordo com a idade: Até 9 anos: MIRIM. Até 14 anos: INFANTIL. Até 19 anos: JÚNIOR. Até 25 anos: SÊNIOR. Acima de 25 anos: MASTER</t>
+  </si>
+  <si>
+    <t>Refaça o DESAFIO 35 dos triângulos, acrescentando o recurso de mostrar que tipo de triângulo será formado: EQUILÁTERO: todos os lados iguais. ISÓSCELES: dois lados iguais, um diferente. ESCALENO: todos os lados diferentes</t>
+  </si>
+  <si>
+    <t>Desenvolva uma lógica que leia o peso e a altura de uma pessoa, calcule seu Índice de Massa Corporal (IMC) e mostre seu status, de acordo com a tabela abaixo: IMC abaixo de 18,5: Abaixo do Peso. Entre 18,5 e 25: Peso Ideal. 25 até 30: Sobrepeso. 30 até 40: Obesidade. Acima de 40: Obesidade Mórbida</t>
+  </si>
+  <si>
+    <t>Elabore um programa que calcule o valor a ser pago por um produto, considerando o seu preço normal e condição de pagamento: à vista dinheiro/cheque: 10% de desconto. à vista no cartão: 5% de desconto. em até 2x no cartão: preço normal. 3x ou mais no cartão: 20% de juros</t>
+  </si>
+  <si>
+    <t>Crie um programa que faça o computador jogar Jokenpô com você.</t>
+  </si>
+  <si>
+    <t>Faça um programa que mostre na tela uma contagem regressiva para o estouro de fogos de artifício, indo de 10 até 0, com uma pausa de 1 segundo entre eles.</t>
   </si>
 </sst>
 </file>
@@ -522,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9933D68-7D04-4DD7-8215-533E8FA6E6AE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -684,7 +702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -692,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -740,7 +758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -764,7 +782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -780,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -828,7 +846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -844,7 +862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -860,34 +878,52 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">

--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FA95BF-C1F4-42BA-B35B-0AF7F3DF6A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CD6A7-B89B-4161-B294-514E9374F771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Faça um programa que mostre na tela uma contagem regressiva para o estouro de fogos de artifício, indo de 10 até 0, com uma pausa de 1 segundo entre eles.</t>
+  </si>
+  <si>
+    <t>Crie um programa que mostre na tela todos os números pares que estão no intervalo entre 1 e 50.</t>
+  </si>
+  <si>
+    <t>Faça um programa que calcule a soma entre todos os números que são múltiplos de três e que se encontram no intervalo de 1 até 500.</t>
+  </si>
+  <si>
+    <t>Refaça o DESAFIO 9, mostrando a tabuada de um número que o usuário escolher, só que agora utilizando um laço for.</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,83 +939,92 @@
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>

--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025CD6A7-B89B-4161-B294-514E9374F771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BF841-9BF7-401F-9741-1DE028C646FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Refaça o DESAFIO 9, mostrando a tabuada de um número que o usuário escolher, só que agora utilizando um laço for.</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia seis números inteiros e mostre a soma apenas daqueles que forem pares. Se o valor digitado for ímpar, desconsidere-o.</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o primeiro termo e a razão de uma PA. No final, mostre os 10 primeiros termos dessa progressão.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia um número inteiro e diga se ele é ou não um número primo.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +559,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,15 +972,24 @@
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">

--- a/Descrição atividades.xlsx
+++ b/Descrição atividades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\CursoEmVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BF841-9BF7-401F-9741-1DE028C646FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A5AE68-96A5-45CA-80C8-5954A9A3C96F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
+    <workbookView xWindow="-20610" yWindow="-75" windowWidth="20730" windowHeight="11160" xr2:uid="{EDE07015-699F-4D5E-BA59-56FD4C5E8550}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>Faça um programa que leia um número inteiro e diga se ele é ou não um número primo.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia uma frase qualquer e diga se ela é um palíndromo, desconsiderando os espaços. Exemplos de palíndromos: APOS A SOPA, A SACADA DA CASA, A TORRE DA DERROTA, O LOBO AMA O BOLO, ANOTARAM A DATA DA MARATONA.</t>
+  </si>
+  <si>
+    <t>Crie um programa que leia o ano de nascimento de sete pessoas. No final, mostre quantas pessoas ainda não atingiram a maioridade e quantas já são maiores.</t>
+  </si>
+  <si>
+    <t>Faça um programa que leia o peso de cinco pessoas. No final, mostre qual foi o maior e o menor peso lidos.</t>
+  </si>
+  <si>
+    <t>Desenvolva um programa que leia o nome, idade e sexo de 4 pessoas. No final do programa, mostre: a média de idade do grupo, qual é o nome do homem mais velho e quantas mulheres têm menos de 20 anos.</t>
   </si>
 </sst>
 </file>
@@ -558,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9933D68-7D04-4DD7-8215-533E8FA6E6AE}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,24 +1004,36 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
